--- a/xlsx/Template_participants.xlsx
+++ b/xlsx/Template_participants.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/git/metadata-schema/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_24DE4956B5ABD38AC41B1CE3470A6C35B5A0AB58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58D75F4A-3C89-4392-9803-E751066FBF58}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="8910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -306,9 +301,6 @@
     <t>An alphanumeric numeric identifier for the project.</t>
   </si>
   <si>
-    <t>This is the ethnic group which the participant identifies with. </t>
-  </si>
-  <si>
     <t>Other Language</t>
   </si>
   <si>
@@ -528,9 +520,6 @@
     <t>Contact Info</t>
   </si>
   <si>
-    <t>Provide the email and mobile number of the lead project investigator.</t>
-  </si>
-  <si>
     <t>projectleader@gmail.com</t>
   </si>
   <si>
@@ -583,12 +572,18 @@
   </si>
   <si>
     <t>Link to participants record on IF Website.</t>
+  </si>
+  <si>
+    <t>This is the ethnic group which the participant identifies with.</t>
+  </si>
+  <si>
+    <t>Provide the email,mobile number and website of the lead project investigator.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,20 +778,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1101,39 +1093,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1151,8 +1143,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1190,8 +1182,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1229,8 +1221,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="14" t="s">
         <v>16</v>
@@ -1307,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="14" t="s">
         <v>16</v>
@@ -1346,7 +1338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="14" t="s">
         <v>16</v>
@@ -1385,8 +1377,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1429,8 +1421,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
       <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1471,8 +1463,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
       <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
@@ -1513,8 +1505,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
@@ -1553,8 +1545,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="15" t="s">
         <v>55</v>
       </c>
@@ -1595,8 +1587,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="15" t="s">
         <v>58</v>
       </c>
@@ -1637,8 +1629,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
@@ -1677,8 +1669,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="15" t="s">
         <v>71</v>
       </c>
@@ -1717,7 +1709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
@@ -1755,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
@@ -1793,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -1831,47 +1823,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -1879,7 +1871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -1893,545 +1885,542 @@
     <mergeCell ref="A8:A15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1"/>
-    <hyperlink ref="K15" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="22" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" style="27" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" style="27" customWidth="1"/>
-    <col min="15" max="15" width="22.44140625" style="27" customWidth="1"/>
-    <col min="16" max="16" width="18" style="27" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="27" customWidth="1"/>
-    <col min="18" max="18" width="18" style="27" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" style="27" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="F2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="I7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="24" t="s">
+      <c r="L7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="K15"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P8" r:id="rId1"/>
+    <hyperlink ref="P8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2439,12 +2428,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Relating_x0020_to xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
+    <Templatereturned xmlns="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Where_x0020_in_x0020_the_x0020_world_x0020_this_x0020_relates xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2783,25 +2779,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Relating_x0020_to xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
-    <Templatereturned xmlns="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Where_x0020_in_x0020_the_x0020_world_x0020_this_x0020_relates xmlns="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE850EF-F3D2-4AD5-AF00-F662D87ECB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24386D95-6B66-41F0-B588-97C681DDD0CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e"/>
+    <ds:schemaRef ds:uri="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2827,13 +2820,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24386D95-6B66-41F0-B588-97C681DDD0CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE850EF-F3D2-4AD5-AF00-F662D87ECB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e9efdf-70dd-4c9c-a5bf-775c91aa858e"/>
-    <ds:schemaRef ds:uri="e195f771-0eb3-4b04-a01a-4bda1f0b8ab2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>